--- a/Tables/Far_Hall_Table.xlsx
+++ b/Tables/Far_Hall_Table.xlsx
@@ -30,9 +30,6 @@
     <t>Water in Window</t>
   </si>
   <si>
-    <t>Water in BR</t>
-  </si>
-  <si>
     <t>Front Door</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>No Sensor</t>
+  </si>
+  <si>
+    <t>2nd Water Application</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,45 +991,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1E-3</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1E-3</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2E-3</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1E-3</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3.0000000000000001E-3</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>1E-3</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3.0000000000000001E-3</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1E-3</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>3.0000000000000001E-3</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1E-3</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>3.0000000000000001E-3</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1E-3</v>
@@ -1570,7 +1570,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">
